--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/F2-Gp9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/F2-Gp9.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6740386666666667</v>
+        <v>0.754521</v>
       </c>
       <c r="H2">
-        <v>2.022116</v>
+        <v>2.263563</v>
       </c>
       <c r="I2">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="J2">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.8006833333333333</v>
+        <v>0.2089833333333333</v>
       </c>
       <c r="N2">
-        <v>2.40205</v>
+        <v>0.62695</v>
       </c>
       <c r="O2">
-        <v>0.1355015843257828</v>
+        <v>0.04265890843137216</v>
       </c>
       <c r="P2">
-        <v>0.1355015843257828</v>
+        <v>0.04265890843137217</v>
       </c>
       <c r="Q2">
-        <v>0.5396915264222222</v>
+        <v>0.15768231365</v>
       </c>
       <c r="R2">
-        <v>4.8572237378</v>
+        <v>1.41914082285</v>
       </c>
       <c r="S2">
-        <v>0.04144070962403503</v>
+        <v>0.01180970727355518</v>
       </c>
       <c r="T2">
-        <v>0.04144070962403505</v>
+        <v>0.01180970727355518</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6740386666666667</v>
+        <v>0.754521</v>
       </c>
       <c r="H3">
-        <v>2.022116</v>
+        <v>2.263563</v>
       </c>
       <c r="I3">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="J3">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>4.493641999999999</v>
       </c>
       <c r="O3">
-        <v>0.2534899816377175</v>
+        <v>0.3057562207534381</v>
       </c>
       <c r="P3">
-        <v>0.2534899816377174</v>
+        <v>0.3057562207534382</v>
       </c>
       <c r="Q3">
-        <v>1.009629487385778</v>
+        <v>1.130182418494</v>
       </c>
       <c r="R3">
-        <v>9.086665386471999</v>
+        <v>10.171641766446</v>
       </c>
       <c r="S3">
-        <v>0.07752532764778752</v>
+        <v>0.08464566011987089</v>
       </c>
       <c r="T3">
-        <v>0.07752532764778752</v>
+        <v>0.0846456601198709</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6740386666666667</v>
+        <v>0.754521</v>
       </c>
       <c r="H4">
-        <v>2.022116</v>
+        <v>2.263563</v>
       </c>
       <c r="I4">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="J4">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.09203733333333332</v>
+        <v>0.404158</v>
       </c>
       <c r="N4">
-        <v>0.276112</v>
+        <v>1.212474</v>
       </c>
       <c r="O4">
-        <v>0.01557570135982204</v>
+        <v>0.08249911052144433</v>
       </c>
       <c r="P4">
-        <v>0.01557570135982204</v>
+        <v>0.08249911052144433</v>
       </c>
       <c r="Q4">
-        <v>0.06203672144355555</v>
+        <v>0.3049456983179999</v>
       </c>
       <c r="R4">
-        <v>0.558330492992</v>
+        <v>2.744511284861999</v>
       </c>
       <c r="S4">
-        <v>0.004763546643788247</v>
+        <v>0.02283908288826309</v>
       </c>
       <c r="T4">
-        <v>0.004763546643788248</v>
+        <v>0.02283908288826309</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6740386666666667</v>
+        <v>0.754521</v>
       </c>
       <c r="H5">
-        <v>2.022116</v>
+        <v>2.263563</v>
       </c>
       <c r="I5">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="J5">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.518431666666667</v>
+        <v>2.787915666666667</v>
       </c>
       <c r="N5">
-        <v>10.555295</v>
+        <v>8.363747</v>
       </c>
       <c r="O5">
-        <v>0.5954327326766777</v>
+        <v>0.5690857602937452</v>
       </c>
       <c r="P5">
-        <v>0.5954327326766776</v>
+        <v>0.5690857602937454</v>
       </c>
       <c r="Q5">
-        <v>2.371558989357778</v>
+        <v>2.103540916729</v>
       </c>
       <c r="R5">
-        <v>21.34403090422</v>
+        <v>18.931868250561</v>
       </c>
       <c r="S5">
-        <v>0.1821023355429858</v>
+        <v>0.1575459028312869</v>
       </c>
       <c r="T5">
-        <v>0.1821023355429858</v>
+        <v>0.1575459028312869</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9731926666666668</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H6">
         <v>2.919578</v>
       </c>
       <c r="I6">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="J6">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.8006833333333333</v>
+        <v>0.2089833333333333</v>
       </c>
       <c r="N6">
-        <v>2.40205</v>
+        <v>0.62695</v>
       </c>
       <c r="O6">
-        <v>0.1355015843257828</v>
+        <v>0.04265890843137216</v>
       </c>
       <c r="P6">
-        <v>0.1355015843257828</v>
+        <v>0.04265890843137217</v>
       </c>
       <c r="Q6">
-        <v>0.7792191483222223</v>
+        <v>0.2033810474555555</v>
       </c>
       <c r="R6">
-        <v>7.012972334900001</v>
+        <v>1.8304294271</v>
       </c>
       <c r="S6">
-        <v>0.0598330581048372</v>
+        <v>0.01523234013911329</v>
       </c>
       <c r="T6">
-        <v>0.05983305810483721</v>
+        <v>0.01523234013911329</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9731926666666668</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H7">
         <v>2.919578</v>
       </c>
       <c r="I7">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="J7">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>4.493641999999999</v>
       </c>
       <c r="O7">
-        <v>0.2534899816377175</v>
+        <v>0.3057562207534381</v>
       </c>
       <c r="P7">
-        <v>0.2534899816377174</v>
+        <v>0.3057562207534382</v>
       </c>
       <c r="Q7">
         <v>1.457726480341778</v>
@@ -883,10 +883,10 @@
         <v>13.119538323076</v>
       </c>
       <c r="S7">
-        <v>0.1119328668796806</v>
+        <v>0.1091772603994023</v>
       </c>
       <c r="T7">
-        <v>0.1119328668796806</v>
+        <v>0.1091772603994024</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9731926666666668</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H8">
         <v>2.919578</v>
       </c>
       <c r="I8">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="J8">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.09203733333333332</v>
+        <v>0.404158</v>
       </c>
       <c r="N8">
-        <v>0.276112</v>
+        <v>1.212474</v>
       </c>
       <c r="O8">
-        <v>0.01557570135982204</v>
+        <v>0.08249911052144433</v>
       </c>
       <c r="P8">
-        <v>0.01557570135982204</v>
+        <v>0.08249911052144433</v>
       </c>
       <c r="Q8">
-        <v>0.08957005785955556</v>
+        <v>0.3933236017746666</v>
       </c>
       <c r="R8">
-        <v>0.806130520736</v>
+        <v>3.539912415972</v>
       </c>
       <c r="S8">
-        <v>0.006877719172974254</v>
+        <v>0.02945819663104114</v>
       </c>
       <c r="T8">
-        <v>0.006877719172974254</v>
+        <v>0.02945819663104114</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9731926666666668</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H9">
         <v>2.919578</v>
       </c>
       <c r="I9">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="J9">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.518431666666667</v>
+        <v>2.787915666666667</v>
       </c>
       <c r="N9">
-        <v>10.555295</v>
+        <v>8.363747</v>
       </c>
       <c r="O9">
-        <v>0.5954327326766777</v>
+        <v>0.5690857602937452</v>
       </c>
       <c r="P9">
-        <v>0.5954327326766776</v>
+        <v>0.5690857602937454</v>
       </c>
       <c r="Q9">
-        <v>3.424111896167779</v>
+        <v>2.713179082085111</v>
       </c>
       <c r="R9">
-        <v>30.81700706551001</v>
+        <v>24.418611738766</v>
       </c>
       <c r="S9">
-        <v>0.2629235773812775</v>
+        <v>0.2032051027059388</v>
       </c>
       <c r="T9">
-        <v>0.2629235773812775</v>
+        <v>0.2032051027059388</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.508125</v>
+        <v>0.7824410000000001</v>
       </c>
       <c r="H10">
-        <v>1.524375</v>
+        <v>2.347323</v>
       </c>
       <c r="I10">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="J10">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.8006833333333333</v>
+        <v>0.2089833333333333</v>
       </c>
       <c r="N10">
-        <v>2.40205</v>
+        <v>0.62695</v>
       </c>
       <c r="O10">
-        <v>0.1355015843257828</v>
+        <v>0.04265890843137216</v>
       </c>
       <c r="P10">
-        <v>0.1355015843257828</v>
+        <v>0.04265890843137217</v>
       </c>
       <c r="Q10">
-        <v>0.40684721875</v>
+        <v>0.1635171283166667</v>
       </c>
       <c r="R10">
-        <v>3.66162496875</v>
+        <v>1.47165415485</v>
       </c>
       <c r="S10">
-        <v>0.03124013742690252</v>
+        <v>0.01224670906287272</v>
       </c>
       <c r="T10">
-        <v>0.03124013742690252</v>
+        <v>0.01224670906287273</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.508125</v>
+        <v>0.7824410000000001</v>
       </c>
       <c r="H11">
-        <v>1.524375</v>
+        <v>2.347323</v>
       </c>
       <c r="I11">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="J11">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>4.493641999999999</v>
       </c>
       <c r="O11">
-        <v>0.2534899816377175</v>
+        <v>0.3057562207534381</v>
       </c>
       <c r="P11">
-        <v>0.2534899816377174</v>
+        <v>0.3057562207534382</v>
       </c>
       <c r="Q11">
-        <v>0.76111061375</v>
+        <v>1.172003246707333</v>
       </c>
       <c r="R11">
-        <v>6.84999552375</v>
+        <v>10.548029220366</v>
       </c>
       <c r="S11">
-        <v>0.05844257764297208</v>
+        <v>0.08777785502305686</v>
       </c>
       <c r="T11">
-        <v>0.05844257764297207</v>
+        <v>0.08777785502305689</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.508125</v>
+        <v>0.7824410000000001</v>
       </c>
       <c r="H12">
-        <v>1.524375</v>
+        <v>2.347323</v>
       </c>
       <c r="I12">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="J12">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.09203733333333332</v>
+        <v>0.404158</v>
       </c>
       <c r="N12">
-        <v>0.276112</v>
+        <v>1.212474</v>
       </c>
       <c r="O12">
-        <v>0.01557570135982204</v>
+        <v>0.08249911052144433</v>
       </c>
       <c r="P12">
-        <v>0.01557570135982204</v>
+        <v>0.08249911052144433</v>
       </c>
       <c r="Q12">
-        <v>0.04676647</v>
+        <v>0.316229789678</v>
       </c>
       <c r="R12">
-        <v>0.42089823</v>
+        <v>2.846068107102</v>
       </c>
       <c r="S12">
-        <v>0.003591006359241859</v>
+        <v>0.02368421137937242</v>
       </c>
       <c r="T12">
-        <v>0.003591006359241859</v>
+        <v>0.02368421137937243</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.508125</v>
+        <v>0.7824410000000001</v>
       </c>
       <c r="H13">
-        <v>1.524375</v>
+        <v>2.347323</v>
       </c>
       <c r="I13">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="J13">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.518431666666667</v>
+        <v>2.787915666666667</v>
       </c>
       <c r="N13">
-        <v>10.555295</v>
+        <v>8.363747</v>
       </c>
       <c r="O13">
-        <v>0.5954327326766777</v>
+        <v>0.5690857602937452</v>
       </c>
       <c r="P13">
-        <v>0.5954327326766776</v>
+        <v>0.5690857602937454</v>
       </c>
       <c r="Q13">
-        <v>1.787803090625</v>
+        <v>2.181379522142334</v>
       </c>
       <c r="R13">
-        <v>16.090227815625</v>
+        <v>19.632415699281</v>
       </c>
       <c r="S13">
-        <v>0.1372781026129752</v>
+        <v>0.1633756698053665</v>
       </c>
       <c r="T13">
-        <v>0.1372781026129752</v>
+        <v>0.1633756698053666</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.2153186666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.645956</v>
+      </c>
+      <c r="I14">
+        <v>0.07900230174085969</v>
+      </c>
+      <c r="J14">
+        <v>0.07900230174085969</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G14">
-        <v>0.048595</v>
-      </c>
-      <c r="H14">
-        <v>0.145785</v>
-      </c>
-      <c r="I14">
-        <v>0.02204903496054208</v>
-      </c>
-      <c r="J14">
-        <v>0.02204903496054208</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M14">
-        <v>0.8006833333333333</v>
+        <v>0.2089833333333333</v>
       </c>
       <c r="N14">
-        <v>2.40205</v>
+        <v>0.62695</v>
       </c>
       <c r="O14">
-        <v>0.1355015843257828</v>
+        <v>0.04265890843137216</v>
       </c>
       <c r="P14">
-        <v>0.1355015843257828</v>
+        <v>0.04265890843137217</v>
       </c>
       <c r="Q14">
-        <v>0.03890920658333333</v>
+        <v>0.04499801268888889</v>
       </c>
       <c r="R14">
-        <v>0.35018285925</v>
+        <v>0.4049821142</v>
       </c>
       <c r="S14">
-        <v>0.002987679170008025</v>
+        <v>0.003370151955830967</v>
       </c>
       <c r="T14">
-        <v>0.002987679170008025</v>
+        <v>0.003370151955830968</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.048595</v>
+        <v>0.2153186666666667</v>
       </c>
       <c r="H15">
-        <v>0.145785</v>
+        <v>0.645956</v>
       </c>
       <c r="I15">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="J15">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>4.493641999999999</v>
       </c>
       <c r="O15">
-        <v>0.2534899816377175</v>
+        <v>0.3057562207534381</v>
       </c>
       <c r="P15">
-        <v>0.2534899816377174</v>
+        <v>0.3057562207534382</v>
       </c>
       <c r="Q15">
-        <v>0.07278951099666665</v>
+        <v>0.3225216679724444</v>
       </c>
       <c r="R15">
-        <v>0.6551055989699999</v>
+        <v>2.902695011751999</v>
       </c>
       <c r="S15">
-        <v>0.005589209467277201</v>
+        <v>0.02415544521110802</v>
       </c>
       <c r="T15">
-        <v>0.005589209467277201</v>
+        <v>0.02415544521110803</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.048595</v>
+        <v>0.2153186666666667</v>
       </c>
       <c r="H16">
-        <v>0.145785</v>
+        <v>0.645956</v>
       </c>
       <c r="I16">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="J16">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.09203733333333332</v>
+        <v>0.404158</v>
       </c>
       <c r="N16">
-        <v>0.276112</v>
+        <v>1.212474</v>
       </c>
       <c r="O16">
-        <v>0.01557570135982204</v>
+        <v>0.08249911052144433</v>
       </c>
       <c r="P16">
-        <v>0.01557570135982204</v>
+        <v>0.08249911052144433</v>
       </c>
       <c r="Q16">
-        <v>0.004472554213333333</v>
+        <v>0.08702276168266665</v>
       </c>
       <c r="R16">
-        <v>0.04025298792</v>
+        <v>0.7832048551439998</v>
       </c>
       <c r="S16">
-        <v>0.0003434291838176789</v>
+        <v>0.006517619622767677</v>
       </c>
       <c r="T16">
-        <v>0.0003434291838176789</v>
+        <v>0.006517619622767677</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.048595</v>
+        <v>0.2153186666666667</v>
       </c>
       <c r="H17">
-        <v>0.145785</v>
+        <v>0.645956</v>
       </c>
       <c r="I17">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="J17">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.518431666666667</v>
+        <v>2.787915666666667</v>
       </c>
       <c r="N17">
-        <v>10.555295</v>
+        <v>8.363747</v>
       </c>
       <c r="O17">
-        <v>0.5954327326766777</v>
+        <v>0.5690857602937452</v>
       </c>
       <c r="P17">
-        <v>0.5954327326766776</v>
+        <v>0.5690857602937454</v>
       </c>
       <c r="Q17">
-        <v>0.1709781868416667</v>
+        <v>0.6002902841257778</v>
       </c>
       <c r="R17">
-        <v>1.538803681575</v>
+        <v>5.402612557132</v>
       </c>
       <c r="S17">
-        <v>0.01312871713943917</v>
+        <v>0.04495908495115301</v>
       </c>
       <c r="T17">
-        <v>0.01312871713943917</v>
+        <v>0.04495908495115302</v>
       </c>
     </row>
   </sheetData>
